--- a/DL_List.xlsx
+++ b/DL_List.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Deep_Learning" sheetId="1" r:id="rId1"/>
+    <sheet name="MLOPS" sheetId="2" r:id="rId2"/>
+    <sheet name="Github_Project" sheetId="3" r:id="rId3"/>
+    <sheet name="Community_class" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>S.No</t>
   </si>
@@ -123,6 +126,66 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fI6hDlf7sjI</t>
+  </si>
+  <si>
+    <t>more about perceptron</t>
+  </si>
+  <si>
+    <t>AND,OR Implementation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLrdaCCBhU_hnt5I8ZDYZ5wjQEarRj_0oo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o6Kf5LIcPk4&amp;t=2s</t>
+  </si>
+  <si>
+    <t>16th SEP</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x7KlPVBLM7s&amp;t=2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobut clearing </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDlo004n5MA</t>
+  </si>
+  <si>
+    <t>18th SEP</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>19th SEP</t>
+  </si>
+  <si>
+    <t>https://github.com/NVDLI/LDL/tree/main/stand_alone</t>
+  </si>
+  <si>
+    <t>https://github.com/Abhishek-Sengupta/MLOps-Wine-Quality</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>https://github.com/c17hawke/mlops_main</t>
+  </si>
+  <si>
+    <t>https://github.com/entbappy/ImageSeeker--An-Image-Classification-Library-with-UI</t>
+  </si>
+  <si>
+    <t>DevOps+GitOps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sVgFfdG8oXE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agenda: </t>
+  </si>
+  <si>
+    <t>https://hackmd.io/@WjOdIG6eQkKK8RhnwE2Dyw/BkBmpoFXK#</t>
   </si>
 </sst>
 </file>
@@ -501,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,9 +579,10 @@
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -578,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -592,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -606,7 +670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -620,7 +684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -633,30 +697,42 @@
       <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -665,6 +741,65 @@
       </c>
       <c r="C10" t="s">
         <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -677,6 +812,119 @@
     <hyperlink ref="H6" r:id="rId6"/>
     <hyperlink ref="H7" r:id="rId7"/>
     <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="H11" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DL_List.xlsx
+++ b/DL_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Deep_Learning" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sushil</author>
+  </authors>
+  <commentList>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sushil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1.30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sushil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Just watch training.py</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>S.No</t>
   </si>
@@ -38,9 +96,6 @@
     <t>Details Topics</t>
   </si>
   <si>
-    <t>Notebook</t>
-  </si>
-  <si>
     <t>Assignment</t>
   </si>
   <si>
@@ -98,9 +153,6 @@
     <t>5th Sep</t>
   </si>
   <si>
-    <t>Perceptron</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Q3t2HUORCZE</t>
   </si>
   <si>
@@ -128,9 +180,6 @@
     <t>https://www.youtube.com/watch?v=fI6hDlf7sjI</t>
   </si>
   <si>
-    <t>more about perceptron</t>
-  </si>
-  <si>
     <t>AND,OR Implementation</t>
   </si>
   <si>
@@ -186,13 +235,75 @@
   </si>
   <si>
     <t>https://hackmd.io/@WjOdIG6eQkKK8RhnwE2Dyw/BkBmpoFXK#</t>
+  </si>
+  <si>
+    <t>dobut clearing session for Tool setup</t>
+  </si>
+  <si>
+    <t>Perceptron-Graphical Representation</t>
+  </si>
+  <si>
+    <t>Using Perceptron code- Play with bias 0,-1,-200,-100,
+Activation function ,No of epchos,capture all weight in list,stop the weight once reach error zero.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wCg9hzlzfIw&amp;t=1s</t>
+  </si>
+  <si>
+    <t>Python pacakge creation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=72_M5OH3z90&amp;t=8382s</t>
+  </si>
+  <si>
+    <t>23rd SEP</t>
+  </si>
+  <si>
+    <t>25th SEP</t>
+  </si>
+  <si>
+    <t>26th SEP</t>
+  </si>
+  <si>
+    <t>30th SEP</t>
+  </si>
+  <si>
+    <t>3rd OCT</t>
+  </si>
+  <si>
+    <t>ANN_Modular Code</t>
+  </si>
+  <si>
+    <t>Complete the modular code as per folder structure  &amp; convert into Pytorch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual studio code doubt clearing </t>
+  </si>
+  <si>
+    <t>more about perceptron
+Implementation of AND OR in Jupter Notebook</t>
+  </si>
+  <si>
+    <t>ANN Juypter implementation</t>
+  </si>
+  <si>
+    <t>7th OCT</t>
+  </si>
+  <si>
+    <t>Doubt clearing</t>
+  </si>
+  <si>
+    <t>Model summary saving hints</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vj-gsvbFhbA&amp;t=9889s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +334,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +361,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -272,17 +408,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,258 +735,835 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="92.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
+      <c r="B19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="H9" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H11" r:id="rId9"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11"/>
+    <hyperlink ref="G18" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -836,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +1629,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -903,22 +1652,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>50</v>
+      <c r="A2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>52</v>
+      <c r="A5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
